--- a/data/new_posteriors/elementary_skills/complex_model/noleak/constrained/results_model2b_noleak_constrained.xlsx
+++ b/data/new_posteriors/elementary_skills/complex_model/noleak/constrained/results_model2b_noleak_constrained.xlsx
@@ -1654,7 +1654,7 @@
         <v>0.9999953789950706</v>
       </c>
       <c r="AL3" t="n" s="85">
-        <v>0.9999999995266436</v>
+        <v>0.9999999995022889</v>
       </c>
       <c r="AM3" t="n" s="85">
         <v>0.9994320379613522</v>
@@ -2904,7 +2904,7 @@
         <v>0.9999096597296816</v>
       </c>
       <c r="AL13" t="n" s="85">
-        <v>0.9962649893606944</v>
+        <v>0.9959079220764119</v>
       </c>
       <c r="AM13" t="n" s="85">
         <v>0.9999917385777265</v>
@@ -4529,7 +4529,7 @@
         <v>0.999888642071413</v>
       </c>
       <c r="AL26" t="n" s="85">
-        <v>0.9999933105084577</v>
+        <v>0.9999918969866205</v>
       </c>
       <c r="AM26" t="n" s="85">
         <v>0.9994729554199479</v>
@@ -4654,7 +4654,7 @@
         <v>0.9999570391679182</v>
       </c>
       <c r="AL27" t="n" s="85">
-        <v>0.994569296207847</v>
+        <v>0.994293198514307</v>
       </c>
       <c r="AM27" t="n" s="85">
         <v>0.9999746426781306</v>
@@ -4663,7 +4663,7 @@
         <v>0.999999939054868</v>
       </c>
       <c r="AO27" t="n" s="85">
-        <v>0.9997664641895276</v>
+        <v>0.9997568057864444</v>
       </c>
       <c r="AP27" t="n" s="85">
         <v>0.9994593799255055</v>
@@ -4672,7 +4672,7 @@
         <v>0.9999753487973041</v>
       </c>
       <c r="AR27" t="n" s="85">
-        <v>0.9994010070916116</v>
+        <v>0.9993802392979559</v>
       </c>
     </row>
     <row r="28">
@@ -5029,7 +5029,7 @@
         <v>0.9994806588609927</v>
       </c>
       <c r="AL30" t="n" s="85">
-        <v>0.994014394217609</v>
+        <v>0.992491973666346</v>
       </c>
       <c r="AM30" t="n" s="85">
         <v>0.9968867268537627</v>
@@ -5038,7 +5038,7 @@
         <v>0.9990480966770517</v>
       </c>
       <c r="AO30" t="n" s="85">
-        <v>0.9993502945536678</v>
+        <v>0.9992043077176819</v>
       </c>
       <c r="AP30" t="n" s="85">
         <v>0.7006093533542606</v>
@@ -5047,7 +5047,7 @@
         <v>0.8186091877734879</v>
       </c>
       <c r="AR30" t="n" s="85">
-        <v>0.32413003591214057</v>
+        <v>0.2848742985562604</v>
       </c>
     </row>
     <row r="31">
@@ -5279,7 +5279,7 @@
         <v>0.998809282860875</v>
       </c>
       <c r="AL32" t="n" s="85">
-        <v>0.9624254578845788</v>
+        <v>0.9513621418096074</v>
       </c>
       <c r="AM32" t="n" s="85">
         <v>0.996396418401809</v>
@@ -5288,7 +5288,7 @@
         <v>0.9976256474564492</v>
       </c>
       <c r="AO32" t="n" s="85">
-        <v>0.9971597931587919</v>
+        <v>0.996403563941535</v>
       </c>
       <c r="AP32" t="n" s="85">
         <v>0.6851587338546883</v>
@@ -5297,7 +5297,7 @@
         <v>0.79422547816991</v>
       </c>
       <c r="AR32" t="n" s="85">
-        <v>0.08796976495081825</v>
+        <v>0.07224352996854232</v>
       </c>
     </row>
     <row r="33">
@@ -5404,7 +5404,7 @@
         <v>0.9891375725805848</v>
       </c>
       <c r="AL33" t="n" s="85">
-        <v>0.7158867012219636</v>
+        <v>0.6753425151833213</v>
       </c>
       <c r="AM33" t="n" s="85">
         <v>0.9934501081512136</v>
@@ -5413,7 +5413,7 @@
         <v>0.9974066304081256</v>
       </c>
       <c r="AO33" t="n" s="85">
-        <v>0.964824749988412</v>
+        <v>0.9594660419311951</v>
       </c>
       <c r="AP33" t="n" s="85">
         <v>0.7530809880233468</v>
@@ -5422,7 +5422,7 @@
         <v>0.9564300581704831</v>
       </c>
       <c r="AR33" t="n" s="85">
-        <v>0.05288931080003101</v>
+        <v>0.04634598442125003</v>
       </c>
     </row>
     <row r="34">
@@ -5529,7 +5529,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL34" t="n" s="85">
-        <v>0.9427893534580789</v>
+        <v>0.9315281252354813</v>
       </c>
       <c r="AM34" t="n" s="85">
         <v>0.9994916810892572</v>
@@ -5538,7 +5538,7 @@
         <v>0.9998779346876814</v>
       </c>
       <c r="AO34" t="n" s="85">
-        <v>0.9944215781888919</v>
+        <v>0.9935415619516506</v>
       </c>
       <c r="AP34" t="n" s="85">
         <v>0.955436355535501</v>
@@ -5547,7 +5547,7 @@
         <v>0.9953879078548065</v>
       </c>
       <c r="AR34" t="n" s="85">
-        <v>0.7568594090652927</v>
+        <v>0.7303868369856872</v>
       </c>
     </row>
     <row r="35">
@@ -5654,7 +5654,7 @@
         <v>0.9582844784407438</v>
       </c>
       <c r="AL35" t="n" s="85">
-        <v>0.7487732454093439</v>
+        <v>0.7052262567384149</v>
       </c>
       <c r="AM35" t="n" s="85">
         <v>0.9534960223302429</v>
@@ -5663,7 +5663,7 @@
         <v>0.9683168601736724</v>
       </c>
       <c r="AO35" t="n" s="85">
-        <v>0.8763742922464772</v>
+        <v>0.8534905059071557</v>
       </c>
       <c r="AP35" t="n" s="85">
         <v>0.36343891052641186</v>
@@ -5672,7 +5672,7 @@
         <v>0.12130479509038075</v>
       </c>
       <c r="AR35" t="n" s="85">
-        <v>6.463108727107245E-5</v>
+        <v>5.398812373487457E-5</v>
       </c>
     </row>
     <row r="36">
@@ -5779,7 +5779,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL36" t="n" s="85">
-        <v>0.9332589509871593</v>
+        <v>0.9202804021859827</v>
       </c>
       <c r="AM36" t="n" s="85">
         <v>0.9992543474336629</v>
@@ -5788,7 +5788,7 @@
         <v>0.9996477736934439</v>
       </c>
       <c r="AO36" t="n" s="85">
-        <v>0.993384241832768</v>
+        <v>0.9923418422680778</v>
       </c>
       <c r="AP36" t="n" s="85">
         <v>0.7829388031011737</v>
@@ -5797,7 +5797,7 @@
         <v>0.9355427966387693</v>
       </c>
       <c r="AR36" t="n" s="85">
-        <v>0.08358048056329413</v>
+        <v>0.07353492991549447</v>
       </c>
     </row>
     <row r="37">
@@ -5904,7 +5904,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL37" t="n" s="85">
-        <v>0.9427893534580789</v>
+        <v>0.9315281252354813</v>
       </c>
       <c r="AM37" t="n" s="85">
         <v>0.9994916810892572</v>
@@ -5913,7 +5913,7 @@
         <v>0.9998779346876814</v>
       </c>
       <c r="AO37" t="n" s="85">
-        <v>0.9944215781888919</v>
+        <v>0.9935415619516506</v>
       </c>
       <c r="AP37" t="n" s="85">
         <v>0.955436355535501</v>
@@ -5922,7 +5922,7 @@
         <v>0.9953879078548065</v>
       </c>
       <c r="AR37" t="n" s="85">
-        <v>0.7568594090652927</v>
+        <v>0.7303868369856872</v>
       </c>
     </row>
     <row r="38">
@@ -6029,7 +6029,7 @@
         <v>0.9999334904737337</v>
       </c>
       <c r="AL38" t="n" s="85">
-        <v>0.9999911394320572</v>
+        <v>0.9999897033402476</v>
       </c>
       <c r="AM38" t="n" s="85">
         <v>0.9999150148298955</v>
@@ -6038,7 +6038,7 @@
         <v>0.9999999988697129</v>
       </c>
       <c r="AO38" t="n" s="85">
-        <v>0.9999999955709182</v>
+        <v>0.9999999950391675</v>
       </c>
       <c r="AP38" t="n" s="85">
         <v>0.9999053326046742</v>
@@ -6047,7 +6047,7 @@
         <v>0.9999998692948453</v>
       </c>
       <c r="AR38" t="n" s="85">
-        <v>0.9999988796321634</v>
+        <v>0.9999987487834056</v>
       </c>
     </row>
     <row r="39">
@@ -6154,7 +6154,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL39" t="n" s="85">
-        <v>0.9420598948229332</v>
+        <v>0.9306656409358751</v>
       </c>
       <c r="AM39" t="n" s="85">
         <v>0.9994916810892572</v>
@@ -6163,7 +6163,7 @@
         <v>0.9998746810750244</v>
       </c>
       <c r="AO39" t="n" s="85">
-        <v>0.994179677983822</v>
+        <v>0.9932617596914107</v>
       </c>
       <c r="AP39" t="n" s="85">
         <v>0.9548853692767051</v>
@@ -6172,7 +6172,7 @@
         <v>0.9952817465365139</v>
       </c>
       <c r="AR39" t="n" s="85">
-        <v>0.7409458268512981</v>
+        <v>0.7133967254109852</v>
       </c>
     </row>
     <row r="40">
@@ -6279,7 +6279,7 @@
         <v>0.9991665569946203</v>
       </c>
       <c r="AL40" t="n" s="85">
-        <v>0.9067081284193897</v>
+        <v>0.8851310334571458</v>
       </c>
       <c r="AM40" t="n" s="85">
         <v>0.998863199398905</v>
@@ -6288,7 +6288,7 @@
         <v>0.9993807820657192</v>
       </c>
       <c r="AO40" t="n" s="85">
-        <v>0.985303009494464</v>
+        <v>0.982160897911844</v>
       </c>
       <c r="AP40" t="n" s="85">
         <v>0.9347502469487314</v>
@@ -6297,7 +6297,7 @@
         <v>0.9915857771460806</v>
       </c>
       <c r="AR40" t="n" s="85">
-        <v>0.4046029520289352</v>
+        <v>0.36369673102729977</v>
       </c>
     </row>
     <row r="41">
@@ -6404,7 +6404,7 @@
         <v>0.9999983198149657</v>
       </c>
       <c r="AL41" t="n" s="85">
-        <v>0.9999999999902988</v>
+        <v>0.9999999999898879</v>
       </c>
       <c r="AM41" t="n" s="85">
         <v>0.9999925197276329</v>
@@ -6529,7 +6529,7 @@
         <v>0.9971809341301344</v>
       </c>
       <c r="AL42" t="n" s="85">
-        <v>0.968814811878728</v>
+        <v>0.9629014953261014</v>
       </c>
       <c r="AM42" t="n" s="85">
         <v>0.9914095650184569</v>
@@ -6538,7 +6538,7 @@
         <v>0.9933712733706256</v>
       </c>
       <c r="AO42" t="n" s="85">
-        <v>0.9911068276717863</v>
+        <v>0.9895058268494042</v>
       </c>
       <c r="AP42" t="n" s="85">
         <v>0.5497315669846751</v>
@@ -6547,7 +6547,7 @@
         <v>0.4691794961989727</v>
       </c>
       <c r="AR42" t="n" s="85">
-        <v>0.004956927492789407</v>
+        <v>0.004277995845441819</v>
       </c>
     </row>
     <row r="43">
@@ -6654,7 +6654,7 @@
         <v>0.9996622082836801</v>
       </c>
       <c r="AL43" t="n" s="85">
-        <v>0.9545484497296857</v>
+        <v>0.9475679872371239</v>
       </c>
       <c r="AM43" t="n" s="85">
         <v>0.9997217865321507</v>
@@ -6663,7 +6663,7 @@
         <v>0.9998594645538831</v>
       </c>
       <c r="AO43" t="n" s="85">
-        <v>0.9958554992760096</v>
+        <v>0.9953602236349</v>
       </c>
       <c r="AP43" t="n" s="85">
         <v>0.9350440801354918</v>
@@ -6672,7 +6672,7 @@
         <v>0.9768316355139126</v>
       </c>
       <c r="AR43" t="n" s="85">
-        <v>0.3967732682240105</v>
+        <v>0.37065974243223176</v>
       </c>
     </row>
     <row r="44">
@@ -6779,7 +6779,7 @@
         <v>0.9996990955468503</v>
       </c>
       <c r="AL44" t="n" s="85">
-        <v>0.9922793995895878</v>
+        <v>0.9906632184042627</v>
       </c>
       <c r="AM44" t="n" s="85">
         <v>0.9994916810892572</v>
@@ -6788,7 +6788,7 @@
         <v>0.9999723839802056</v>
       </c>
       <c r="AO44" t="n" s="85">
-        <v>0.9996585388112664</v>
+        <v>0.999604343367307</v>
       </c>
       <c r="AP44" t="n" s="85">
         <v>0.9636408145093668</v>
@@ -6797,7 +6797,7 @@
         <v>0.9960752188309743</v>
       </c>
       <c r="AR44" t="n" s="85">
-        <v>0.9846727375247323</v>
+        <v>0.9824280748071185</v>
       </c>
     </row>
     <row r="45">
@@ -6904,7 +6904,7 @@
         <v>0.9998134950423272</v>
       </c>
       <c r="AL45" t="n" s="85">
-        <v>0.9704541382979577</v>
+        <v>0.9661044595538747</v>
       </c>
       <c r="AM45" t="n" s="85">
         <v>0.9997918242794397</v>
@@ -6913,7 +6913,7 @@
         <v>0.9999816770174643</v>
       </c>
       <c r="AO45" t="n" s="85">
-        <v>0.9979655414379507</v>
+        <v>0.9977366801030619</v>
       </c>
       <c r="AP45" t="n" s="85">
         <v>0.9751993442671837</v>
@@ -6922,7 +6922,7 @@
         <v>0.997897457623045</v>
       </c>
       <c r="AR45" t="n" s="85">
-        <v>0.9362097396057755</v>
+        <v>0.9296543499955999</v>
       </c>
     </row>
     <row r="46">
@@ -7029,7 +7029,7 @@
         <v>0.7666448371426554</v>
       </c>
       <c r="AL46" t="n" s="85">
-        <v>0.41238300507265885</v>
+        <v>0.3062681202823449</v>
       </c>
       <c r="AM46" t="n" s="85">
         <v>0.7002263113210035</v>
@@ -7038,7 +7038,7 @@
         <v>0.29981304830002464</v>
       </c>
       <c r="AO46" t="n" s="85">
-        <v>7.887730600823836E-4</v>
+        <v>5.080024015276768E-4</v>
       </c>
       <c r="AP46" t="n" s="85">
         <v>0.22700351424114318</v>
@@ -7047,7 +7047,7 @@
         <v>8.558657171949983E-4</v>
       </c>
       <c r="AR46" t="n" s="85">
-        <v>2.1316637886339886E-10</v>
+        <v>1.465861420921214E-10</v>
       </c>
     </row>
     <row r="47">
@@ -7154,7 +7154,7 @@
         <v>0.9961540731774964</v>
       </c>
       <c r="AL47" t="n" s="85">
-        <v>0.9841736369364426</v>
+        <v>0.9799926371952732</v>
       </c>
       <c r="AM47" t="n" s="85">
         <v>0.9874314067670528</v>
@@ -7163,7 +7163,7 @@
         <v>0.9603805547389389</v>
       </c>
       <c r="AO47" t="n" s="85">
-        <v>0.9819956496761298</v>
+        <v>0.9775549219239558</v>
       </c>
       <c r="AP47" t="n" s="85">
         <v>0.7561850197403499</v>
@@ -7172,7 +7172,7 @@
         <v>0.4011130621230833</v>
       </c>
       <c r="AR47" t="n" s="85">
-        <v>0.00590382817655419</v>
+        <v>0.004898930211443144</v>
       </c>
     </row>
     <row r="48">
@@ -7279,7 +7279,7 @@
         <v>0.9906256840635868</v>
       </c>
       <c r="AL48" t="n" s="85">
-        <v>0.9362474339453464</v>
+        <v>0.9238025808745307</v>
       </c>
       <c r="AM48" t="n" s="85">
         <v>0.9830942003094449</v>
@@ -7288,7 +7288,7 @@
         <v>0.9883246689644003</v>
       </c>
       <c r="AO48" t="n" s="85">
-        <v>0.983833686389651</v>
+        <v>0.9813147764871124</v>
       </c>
       <c r="AP48" t="n" s="85">
         <v>0.4573822672972658</v>
@@ -7297,7 +7297,7 @@
         <v>0.26126140153459276</v>
       </c>
       <c r="AR48" t="n" s="85">
-        <v>0.0016504475867239034</v>
+        <v>0.0014366429122892013</v>
       </c>
     </row>
     <row r="49">
@@ -7404,7 +7404,7 @@
         <v>0.9984280353395165</v>
       </c>
       <c r="AL49" t="n" s="85">
-        <v>0.8665270573642723</v>
+        <v>0.8321521350694782</v>
       </c>
       <c r="AM49" t="n" s="85">
         <v>0.996396418401809</v>
@@ -7413,7 +7413,7 @@
         <v>0.9954718751771044</v>
       </c>
       <c r="AO49" t="n" s="85">
-        <v>0.954798190063576</v>
+        <v>0.9434030073732749</v>
       </c>
       <c r="AP49" t="n" s="85">
         <v>0.6731783903107786</v>
@@ -7422,7 +7422,7 @@
         <v>0.7706550845725251</v>
       </c>
       <c r="AR49" t="n" s="85">
-        <v>0.0024524554038820724</v>
+        <v>0.001980829837770447</v>
       </c>
     </row>
     <row r="50">
@@ -7529,7 +7529,7 @@
         <v>0.9779691640760935</v>
       </c>
       <c r="AL50" t="n" s="85">
-        <v>0.6852485205242714</v>
+        <v>0.6148905024190868</v>
       </c>
       <c r="AM50" t="n" s="85">
         <v>0.9680592167584018</v>
@@ -7538,7 +7538,7 @@
         <v>0.9591277754869311</v>
       </c>
       <c r="AO50" t="n" s="85">
-        <v>0.6282820469494934</v>
+        <v>0.5593320009844116</v>
       </c>
       <c r="AP50" t="n" s="85">
         <v>0.48627828774402293</v>
@@ -7547,7 +7547,7 @@
         <v>0.22831536880273176</v>
       </c>
       <c r="AR50" t="n" s="85">
-        <v>2.061350092293251E-5</v>
+        <v>1.608397052429195E-5</v>
       </c>
     </row>
     <row r="51">
@@ -7654,7 +7654,7 @@
         <v>0.9427257633040607</v>
       </c>
       <c r="AL51" t="n" s="85">
-        <v>0.9848778843713407</v>
+        <v>0.980197438408688</v>
       </c>
       <c r="AM51" t="n" s="85">
         <v>0.7732007525972027</v>
@@ -7663,7 +7663,7 @@
         <v>0.26161658540696897</v>
       </c>
       <c r="AO51" t="n" s="85">
-        <v>0.17621949106727713</v>
+        <v>0.14312598579301036</v>
       </c>
       <c r="AP51" t="n" s="85">
         <v>0.19317709910459713</v>
@@ -7672,7 +7672,7 @@
         <v>3.286604602174434E-4</v>
       </c>
       <c r="AR51" t="n" s="85">
-        <v>1.936878002812073E-7</v>
+        <v>1.5515032804589966E-7</v>
       </c>
     </row>
     <row r="52">
@@ -7779,7 +7779,7 @@
         <v>0.9996424331058064</v>
       </c>
       <c r="AL52" t="n" s="85">
-        <v>0.9357051046797942</v>
+        <v>0.9233416760867849</v>
       </c>
       <c r="AM52" t="n" s="85">
         <v>0.999382866803466</v>
@@ -7788,7 +7788,7 @@
         <v>0.9997008211502347</v>
       </c>
       <c r="AO52" t="n" s="85">
-        <v>0.9939921945392597</v>
+        <v>0.9929703187441113</v>
       </c>
       <c r="AP52" t="n" s="85">
         <v>0.7966487213832679</v>
@@ -7797,7 +7797,7 @@
         <v>0.9413980808132536</v>
       </c>
       <c r="AR52" t="n" s="85">
-        <v>0.0980228469950897</v>
+        <v>0.08569297987382556</v>
       </c>
     </row>
     <row r="53">
@@ -8154,7 +8154,7 @@
         <v>0.9999675826739229</v>
       </c>
       <c r="AL55" t="n" s="85">
-        <v>0.9995780975430391</v>
+        <v>0.9995602327052957</v>
       </c>
       <c r="AM55" t="n" s="85">
         <v>0.9999818583815763</v>
@@ -8163,7 +8163,7 @@
         <v>0.999999998375406</v>
       </c>
       <c r="AO55" t="n" s="85">
-        <v>0.9999985801482322</v>
+        <v>0.9999985310643855</v>
       </c>
       <c r="AP55" t="n" s="85">
         <v>0.9999665490224158</v>
@@ -8172,7 +8172,7 @@
         <v>0.9999998523742071</v>
       </c>
       <c r="AR55" t="n" s="85">
-        <v>0.999992260867623</v>
+        <v>0.9999920371935702</v>
       </c>
     </row>
     <row r="56">
@@ -8404,7 +8404,7 @@
         <v>0.9999855715190015</v>
       </c>
       <c r="AL57" t="n" s="85">
-        <v>0.9999959712267888</v>
+        <v>0.9999957639426731</v>
       </c>
       <c r="AM57" t="n" s="85">
         <v>0.9999641197407292</v>
@@ -8413,7 +8413,7 @@
         <v>0.9999999989738985</v>
       </c>
       <c r="AO57" t="n" s="85">
-        <v>0.9999999879821706</v>
+        <v>0.9999999875363714</v>
       </c>
       <c r="AP57" t="n" s="85">
         <v>0.9968281432520213</v>
@@ -8422,7 +8422,7 @@
         <v>0.9999570774933279</v>
       </c>
       <c r="AR57" t="n" s="85">
-        <v>0.999983731177078</v>
+        <v>0.9999830980766629</v>
       </c>
     </row>
     <row r="58">
@@ -8654,7 +8654,7 @@
         <v>0.9999900281843569</v>
       </c>
       <c r="AL59" t="n" s="85">
-        <v>0.9999999982273504</v>
+        <v>0.999999998040843</v>
       </c>
       <c r="AM59" t="n" s="85">
         <v>0.9997988076841251</v>
@@ -8663,7 +8663,7 @@
         <v>0.9999999999337984</v>
       </c>
       <c r="AO59" t="n" s="85">
-        <v>0.9999999999999071</v>
+        <v>0.9999999999998997</v>
       </c>
       <c r="AP59" t="n" s="85">
         <v>0.9955048064843303</v>
@@ -8672,7 +8672,7 @@
         <v>0.9999986915843337</v>
       </c>
       <c r="AR59" t="n" s="85">
-        <v>0.9999998933260038</v>
+        <v>0.9999998853298947</v>
       </c>
     </row>
     <row r="60">
@@ -8904,7 +8904,7 @@
         <v>0.9999922955502231</v>
       </c>
       <c r="AL61" t="n" s="85">
-        <v>0.9999999844060328</v>
+        <v>0.9999999837454387</v>
       </c>
       <c r="AM61" t="n" s="85">
         <v>0.9999818583815763</v>
@@ -8913,7 +8913,7 @@
         <v>0.9999999999995087</v>
       </c>
       <c r="AO61" t="n" s="85">
-        <v>0.9999999999999672</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="AP61" t="n" s="85">
         <v>0.9999877127557738</v>
@@ -8922,7 +8922,7 @@
         <v>0.9999999998607619</v>
       </c>
       <c r="AR61" t="n" s="85">
-        <v>0.9999999954073041</v>
+        <v>0.9999999952745664</v>
       </c>
     </row>
     <row r="62">
@@ -9154,7 +9154,7 @@
         <v>0.9999969724868757</v>
       </c>
       <c r="AL63" t="n" s="85">
-        <v>0.9999999998409711</v>
+        <v>0.9999999998342343</v>
       </c>
       <c r="AM63" t="n" s="85">
         <v>0.999971504020244</v>
@@ -9404,7 +9404,7 @@
         <v>0.9999926521546556</v>
       </c>
       <c r="AL65" t="n" s="85">
-        <v>0.9999999975938342</v>
+        <v>0.9999999974919038</v>
       </c>
       <c r="AM65" t="n" s="85">
         <v>0.9999827612248617</v>
@@ -9529,7 +9529,7 @@
         <v>0.9976296585625264</v>
       </c>
       <c r="AL66" t="n" s="85">
-        <v>0.9447027527864214</v>
+        <v>0.928807228511782</v>
       </c>
       <c r="AM66" t="n" s="85">
         <v>0.9942974455626696</v>
@@ -9538,7 +9538,7 @@
         <v>0.9960955395055897</v>
       </c>
       <c r="AO66" t="n" s="85">
-        <v>0.9957709280676407</v>
+        <v>0.9946468869168295</v>
       </c>
       <c r="AP66" t="n" s="85">
         <v>0.6297578700779868</v>
@@ -9547,7 +9547,7 @@
         <v>0.7124063884580434</v>
       </c>
       <c r="AR66" t="n" s="85">
-        <v>0.03966904036379091</v>
+        <v>0.032271925332503</v>
       </c>
     </row>
     <row r="67">
@@ -9654,7 +9654,7 @@
         <v>0.999940455140603</v>
       </c>
       <c r="AL67" t="n" s="85">
-        <v>0.9770857905679964</v>
+        <v>0.9761382577415756</v>
       </c>
       <c r="AM67" t="n" s="85">
         <v>0.9999918790878689</v>
@@ -9663,7 +9663,7 @@
         <v>0.9999999983561297</v>
       </c>
       <c r="AO67" t="n" s="85">
-        <v>0.9998157335573606</v>
+        <v>0.9998093647271119</v>
       </c>
       <c r="AP67" t="n" s="85">
         <v>0.9999994814298625</v>
@@ -9672,7 +9672,7 @@
         <v>0.99999999875284</v>
       </c>
       <c r="AR67" t="n" s="85">
-        <v>0.9999899610633064</v>
+        <v>0.9999896709216943</v>
       </c>
     </row>
     <row r="68">
@@ -9779,7 +9779,7 @@
         <v>0.9999656556008717</v>
       </c>
       <c r="AL68" t="n" s="85">
-        <v>0.9999999098617335</v>
+        <v>0.9999999012390947</v>
       </c>
       <c r="AM68" t="n" s="85">
         <v>0.9999308244525535</v>
@@ -9904,7 +9904,7 @@
         <v>0.9987052794247886</v>
       </c>
       <c r="AL69" t="n" s="85">
-        <v>0.9904065232327401</v>
+        <v>0.988393994560026</v>
       </c>
       <c r="AM69" t="n" s="85">
         <v>0.9930951123624088</v>
@@ -9913,7 +9913,7 @@
         <v>0.9936017342421813</v>
       </c>
       <c r="AO69" t="n" s="85">
-        <v>0.995128928602334</v>
+        <v>0.994290710247512</v>
       </c>
       <c r="AP69" t="n" s="85">
         <v>0.5796728152900404</v>
@@ -9922,7 +9922,7 @@
         <v>0.5136985111043578</v>
       </c>
       <c r="AR69" t="n" s="85">
-        <v>0.024217874422783593</v>
+        <v>0.020952479428148908</v>
       </c>
     </row>
     <row r="70">
@@ -10029,7 +10029,7 @@
         <v>0.9997811231535251</v>
       </c>
       <c r="AL70" t="n" s="85">
-        <v>0.9995404718160518</v>
+        <v>0.9994434245511093</v>
       </c>
       <c r="AM70" t="n" s="85">
         <v>0.999661521172044</v>
@@ -10038,7 +10038,7 @@
         <v>0.9999993562406189</v>
       </c>
       <c r="AO70" t="n" s="85">
-        <v>0.9999919068069034</v>
+        <v>0.9999906217891572</v>
       </c>
       <c r="AP70" t="n" s="85">
         <v>0.9972118272049858</v>
@@ -10047,7 +10047,7 @@
         <v>0.9998769595284853</v>
       </c>
       <c r="AR70" t="n" s="85">
-        <v>0.9998791128573608</v>
+        <v>0.9998610949015947</v>
       </c>
     </row>
     <row r="71">
@@ -10154,7 +10154,7 @@
         <v>0.9973593210385097</v>
       </c>
       <c r="AL71" t="n" s="85">
-        <v>0.9486522276971501</v>
+        <v>0.9425131451729156</v>
       </c>
       <c r="AM71" t="n" s="85">
         <v>0.9984277118474618</v>
@@ -10163,7 +10163,7 @@
         <v>0.9999470053442222</v>
       </c>
       <c r="AO71" t="n" s="85">
-        <v>0.9960339856699518</v>
+        <v>0.9955152418946147</v>
       </c>
       <c r="AP71" t="n" s="85">
         <v>0.9978720772429738</v>
@@ -10172,7 +10172,7 @@
         <v>0.9999478989195104</v>
       </c>
       <c r="AR71" t="n" s="85">
-        <v>0.9981907901434685</v>
+        <v>0.9979937247932095</v>
       </c>
     </row>
     <row r="72">
@@ -10279,7 +10279,7 @@
         <v>0.9996719557638182</v>
       </c>
       <c r="AL72" t="n" s="85">
-        <v>0.9999986029241298</v>
+        <v>0.9999982404652193</v>
       </c>
       <c r="AM72" t="n" s="85">
         <v>0.9981469673143982</v>
@@ -10288,7 +10288,7 @@
         <v>0.9999997744776667</v>
       </c>
       <c r="AO72" t="n" s="85">
-        <v>0.9999999979636727</v>
+        <v>0.9999999975324052</v>
       </c>
       <c r="AP72" t="n" s="85">
         <v>0.9545120348867181</v>
@@ -10297,7 +10297,7 @@
         <v>0.9989818098349986</v>
       </c>
       <c r="AR72" t="n" s="85">
-        <v>0.9999843902747996</v>
+        <v>0.9999813771342047</v>
       </c>
     </row>
     <row r="73">
@@ -10404,7 +10404,7 @@
         <v>0.9994874402860449</v>
       </c>
       <c r="AL73" t="n" s="85">
-        <v>0.8895006566556362</v>
+        <v>0.873850384442506</v>
       </c>
       <c r="AM73" t="n" s="85">
         <v>0.9992515960028596</v>
@@ -10413,7 +10413,7 @@
         <v>0.9994098664116479</v>
       </c>
       <c r="AO73" t="n" s="85">
-        <v>0.961790729468451</v>
+        <v>0.9573987925941657</v>
       </c>
       <c r="AP73" t="n" s="85">
         <v>0.7408160147660551</v>
@@ -10422,7 +10422,7 @@
         <v>0.9076834603648362</v>
       </c>
       <c r="AR73" t="n" s="85">
-        <v>0.007687162497127645</v>
+        <v>0.0068887974087557344</v>
       </c>
     </row>
     <row r="74">
@@ -10654,7 +10654,7 @@
         <v>0.9999888006250287</v>
       </c>
       <c r="AL75" t="n" s="85">
-        <v>0.9999997660762711</v>
+        <v>0.9999997561667601</v>
       </c>
       <c r="AM75" t="n" s="85">
         <v>0.9999878361224935</v>
@@ -10779,7 +10779,7 @@
         <v>0.9998482667070913</v>
       </c>
       <c r="AL76" t="n" s="85">
-        <v>0.9959789557353331</v>
+        <v>0.9953704540419952</v>
       </c>
       <c r="AM76" t="n" s="85">
         <v>0.9998323866896566</v>
@@ -10904,7 +10904,7 @@
         <v>0.9977414490104348</v>
       </c>
       <c r="AL77" t="n" s="85">
-        <v>0.8320250424175639</v>
+        <v>0.7965383628221651</v>
       </c>
       <c r="AM77" t="n" s="85">
         <v>0.9956878567182363</v>
@@ -10913,7 +10913,7 @@
         <v>0.9940854139108193</v>
       </c>
       <c r="AO77" t="n" s="85">
-        <v>0.7910281812287105</v>
+        <v>0.7570205104203098</v>
       </c>
       <c r="AP77" t="n" s="85">
         <v>0.627785713713337</v>
@@ -10922,7 +10922,7 @@
         <v>0.6850123615510452</v>
       </c>
       <c r="AR77" t="n" s="85">
-        <v>1.7963702653200876E-4</v>
+        <v>1.5030937182982797E-4</v>
       </c>
     </row>
     <row r="78">
@@ -11029,7 +11029,7 @@
         <v>0.999984834242896</v>
       </c>
       <c r="AL78" t="n" s="85">
-        <v>0.9999994480594214</v>
+        <v>0.9999994198376503</v>
       </c>
       <c r="AM78" t="n" s="85">
         <v>0.9982817397032387</v>
@@ -11038,7 +11038,7 @@
         <v>0.9999972839006783</v>
       </c>
       <c r="AO78" t="n" s="85">
-        <v>0.9999994664637315</v>
+        <v>0.9999994443927739</v>
       </c>
       <c r="AP78" t="n" s="85">
         <v>0.8618043556694166</v>
@@ -11047,7 +11047,7 @@
         <v>0.9702645510583117</v>
       </c>
       <c r="AR78" t="n" s="85">
-        <v>0.9992935171902478</v>
+        <v>0.9992690253202183</v>
       </c>
     </row>
     <row r="79">
@@ -11154,7 +11154,7 @@
         <v>0.9999798876143157</v>
       </c>
       <c r="AL79" t="n" s="85">
-        <v>0.9999997041631151</v>
+        <v>0.9999996729376871</v>
       </c>
       <c r="AM79" t="n" s="85">
         <v>0.9997785843642563</v>
@@ -11163,7 +11163,7 @@
         <v>0.9999999869066141</v>
       </c>
       <c r="AO79" t="n" s="85">
-        <v>0.9999999973454683</v>
+        <v>0.9999999971448769</v>
       </c>
       <c r="AP79" t="n" s="85">
         <v>0.9246543178541511</v>
@@ -11172,7 +11172,7 @@
         <v>0.9960954165612056</v>
       </c>
       <c r="AR79" t="n" s="85">
-        <v>0.9999237575604054</v>
+        <v>0.9999177085532099</v>
       </c>
     </row>
     <row r="80">
@@ -11279,7 +11279,7 @@
         <v>0.9995331842780827</v>
       </c>
       <c r="AL80" t="n" s="85">
-        <v>0.9458286553672899</v>
+        <v>0.9381025941572521</v>
       </c>
       <c r="AM80" t="n" s="85">
         <v>0.9995865689727336</v>
@@ -11288,7 +11288,7 @@
         <v>0.9999467969845723</v>
       </c>
       <c r="AO80" t="n" s="85">
-        <v>0.9967200303060388</v>
+        <v>0.9963365951777355</v>
       </c>
       <c r="AP80" t="n" s="85">
         <v>0.9616325219467845</v>
@@ -11297,7 +11297,7 @@
         <v>0.9970774465790442</v>
       </c>
       <c r="AR80" t="n" s="85">
-        <v>0.8812272533663333</v>
+        <v>0.8702678932063318</v>
       </c>
     </row>
     <row r="81">
@@ -11404,7 +11404,7 @@
         <v>0.9982020133379371</v>
       </c>
       <c r="AL81" t="n" s="85">
-        <v>0.9999957827197259</v>
+        <v>0.9999950032481615</v>
       </c>
       <c r="AM81" t="n" s="85">
         <v>0.9957331352545874</v>
@@ -11529,7 +11529,7 @@
         <v>0.999694921533029</v>
       </c>
       <c r="AL82" t="n" s="85">
-        <v>0.989735763169227</v>
+        <v>0.9875937707057534</v>
       </c>
       <c r="AM82" t="n" s="85">
         <v>0.9992543474336629</v>
@@ -11538,7 +11538,7 @@
         <v>0.999901359768626</v>
       </c>
       <c r="AO82" t="n" s="85">
-        <v>0.9995708323807936</v>
+        <v>0.9995027234245881</v>
       </c>
       <c r="AP82" t="n" s="85">
         <v>0.8050292403814993</v>
@@ -11547,7 +11547,7 @@
         <v>0.9470615381244059</v>
       </c>
       <c r="AR82" t="n" s="85">
-        <v>0.7081691181152827</v>
+        <v>0.6786461269680041</v>
       </c>
     </row>
     <row r="83">
@@ -11654,7 +11654,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL83" t="n" s="85">
-        <v>0.9332589509871593</v>
+        <v>0.9202804021859827</v>
       </c>
       <c r="AM83" t="n" s="85">
         <v>0.9992543474336629</v>
@@ -11663,7 +11663,7 @@
         <v>0.9996477736934439</v>
       </c>
       <c r="AO83" t="n" s="85">
-        <v>0.993384241832768</v>
+        <v>0.9923418422680778</v>
       </c>
       <c r="AP83" t="n" s="85">
         <v>0.7829388031011737</v>
@@ -11672,7 +11672,7 @@
         <v>0.9355427966387693</v>
       </c>
       <c r="AR83" t="n" s="85">
-        <v>0.08358048056329413</v>
+        <v>0.07353492991549447</v>
       </c>
     </row>
     <row r="84">
@@ -12029,7 +12029,7 @@
         <v>0.9999929826034638</v>
       </c>
       <c r="AL86" t="n" s="85">
-        <v>0.9999999905383772</v>
+        <v>0.9999999901375625</v>
       </c>
       <c r="AM86" t="n" s="85">
         <v>0.9999119650700746</v>
@@ -12038,7 +12038,7 @@
         <v>0.9999999999512477</v>
       </c>
       <c r="AO86" t="n" s="85">
-        <v>0.9999999999986394</v>
+        <v>0.9999999999985925</v>
       </c>
       <c r="AP86" t="n" s="85">
         <v>0.9975390578524009</v>
@@ -12047,7 +12047,7 @@
         <v>0.9999986346195783</v>
       </c>
       <c r="AR86" t="n" s="85">
-        <v>0.9999997055622758</v>
+        <v>0.9999996970524611</v>
       </c>
     </row>
     <row r="87">
@@ -12154,7 +12154,7 @@
         <v>0.9999966196242513</v>
       </c>
       <c r="AL87" t="n" s="85">
-        <v>0.999999999952697</v>
+        <v>0.9999999999502782</v>
       </c>
       <c r="AM87" t="n" s="85">
         <v>0.9993723201884661</v>
@@ -12279,7 +12279,7 @@
         <v>0.997658399145416</v>
       </c>
       <c r="AL88" t="n" s="85">
-        <v>0.9999942231189548</v>
+        <v>0.9999931553914403</v>
       </c>
       <c r="AM88" t="n" s="85">
         <v>0.9905875890921092</v>
@@ -12288,7 +12288,7 @@
         <v>0.9999975695958487</v>
       </c>
       <c r="AO88" t="n" s="85">
-        <v>0.9999999854635447</v>
+        <v>0.9999999829435768</v>
       </c>
       <c r="AP88" t="n" s="85">
         <v>0.5748595823738973</v>
@@ -12297,7 +12297,7 @@
         <v>0.8342495869198759</v>
       </c>
       <c r="AR88" t="n" s="85">
-        <v>0.99903496372552</v>
+        <v>0.9988881469551631</v>
       </c>
     </row>
     <row r="89">
@@ -12404,7 +12404,7 @@
         <v>0.9999816529050248</v>
       </c>
       <c r="AL89" t="n" s="85">
-        <v>0.9999999779054859</v>
+        <v>0.9999999757919213</v>
       </c>
       <c r="AM89" t="n" s="85">
         <v>0.9998718415599505</v>
@@ -12413,7 +12413,7 @@
         <v>0.9999999999189797</v>
       </c>
       <c r="AO89" t="n" s="85">
-        <v>0.9999999999993212</v>
+        <v>0.9999999999992688</v>
       </c>
       <c r="AP89" t="n" s="85">
         <v>0.9995187870961766</v>
@@ -12422,7 +12422,7 @@
         <v>0.9999999386537572</v>
       </c>
       <c r="AR89" t="n" s="85">
-        <v>0.9999999383681499</v>
+        <v>0.9999999343868993</v>
       </c>
     </row>
     <row r="90">
@@ -12654,7 +12654,7 @@
         <v>0.9995436064517406</v>
       </c>
       <c r="AL91" t="n" s="85">
-        <v>0.9697466732748632</v>
+        <v>0.9635867276376152</v>
       </c>
       <c r="AM91" t="n" s="85">
         <v>0.9986207063989363</v>
@@ -12663,7 +12663,7 @@
         <v>0.9992095926916329</v>
       </c>
       <c r="AO91" t="n" s="85">
-        <v>0.9952381380081209</v>
+        <v>0.9944862227956618</v>
       </c>
       <c r="AP91" t="n" s="85">
         <v>0.7370057382248963</v>
@@ -12672,7 +12672,7 @@
         <v>0.8819064155479652</v>
       </c>
       <c r="AR91" t="n" s="85">
-        <v>0.08041797403057334</v>
+        <v>0.07072319175617436</v>
       </c>
     </row>
     <row r="92">
@@ -12779,7 +12779,7 @@
         <v>0.9999931036036687</v>
       </c>
       <c r="AL92" t="n" s="85">
-        <v>0.99999999982164</v>
+        <v>0.9999999998124632</v>
       </c>
       <c r="AM92" t="n" s="85">
         <v>0.9994813335534761</v>
@@ -12904,7 +12904,7 @@
         <v>0.9999732481979244</v>
       </c>
       <c r="AL93" t="n" s="85">
-        <v>0.9997146086467694</v>
+        <v>0.9996999293410869</v>
       </c>
       <c r="AM93" t="n" s="85">
         <v>0.9999048839648322</v>
@@ -12913,7 +12913,7 @@
         <v>0.9999993279444348</v>
       </c>
       <c r="AO93" t="n" s="85">
-        <v>0.9999792695159138</v>
+        <v>0.9999785005390044</v>
       </c>
       <c r="AP93" t="n" s="85">
         <v>0.9273842220931322</v>
@@ -12922,7 +12922,7 @@
         <v>0.9897680290315981</v>
       </c>
       <c r="AR93" t="n" s="85">
-        <v>0.990610723993772</v>
+        <v>0.9902488975696768</v>
       </c>
     </row>
     <row r="94">
@@ -13154,7 +13154,7 @@
         <v>0.9999520970254276</v>
       </c>
       <c r="AL95" t="n" s="85">
-        <v>0.9975894109195074</v>
+        <v>0.9974875497353226</v>
       </c>
       <c r="AM95" t="n" s="85">
         <v>0.9999469601068477</v>
@@ -13163,7 +13163,7 @@
         <v>0.9999998148133624</v>
       </c>
       <c r="AO95" t="n" s="85">
-        <v>0.9998430076554242</v>
+        <v>0.9998375813510108</v>
       </c>
       <c r="AP95" t="n" s="85">
         <v>0.9990839079549566</v>
@@ -13172,7 +13172,7 @@
         <v>0.9999615876987827</v>
       </c>
       <c r="AR95" t="n" s="85">
-        <v>0.9995313835024688</v>
+        <v>0.9995178461132229</v>
       </c>
     </row>
     <row r="96">
@@ -13779,7 +13779,7 @@
         <v>0.9982330526838984</v>
       </c>
       <c r="AL100" t="n" s="85">
-        <v>0.948970633273126</v>
+        <v>0.9394699423001771</v>
       </c>
       <c r="AM100" t="n" s="85">
         <v>0.9971052019395769</v>
@@ -13788,7 +13788,7 @@
         <v>0.998477363246975</v>
       </c>
       <c r="AO100" t="n" s="85">
-        <v>0.9904986401403459</v>
+        <v>0.98896090895351</v>
       </c>
       <c r="AP100" t="n" s="85">
         <v>0.8595440158054286</v>
@@ -13797,7 +13797,7 @@
         <v>0.9763490674660201</v>
       </c>
       <c r="AR100" t="n" s="85">
-        <v>0.29930896447872885</v>
+        <v>0.27032283481084196</v>
       </c>
     </row>
     <row r="101">
@@ -13904,7 +13904,7 @@
         <v>0.9999922955502231</v>
       </c>
       <c r="AL101" t="n" s="85">
-        <v>0.9999999844060328</v>
+        <v>0.9999999837454387</v>
       </c>
       <c r="AM101" t="n" s="85">
         <v>0.9999818583815763</v>
@@ -13913,7 +13913,7 @@
         <v>0.9999999999995087</v>
       </c>
       <c r="AO101" t="n" s="85">
-        <v>0.9999999999999672</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="AP101" t="n" s="85">
         <v>0.9999877127557738</v>
@@ -13922,7 +13922,7 @@
         <v>0.9999999998607619</v>
       </c>
       <c r="AR101" t="n" s="85">
-        <v>0.9999999954073041</v>
+        <v>0.9999999952745664</v>
       </c>
     </row>
     <row r="102">
@@ -14029,7 +14029,7 @@
         <v>0.999694921533029</v>
       </c>
       <c r="AL102" t="n" s="85">
-        <v>0.991835428011158</v>
+        <v>0.9901272333469788</v>
       </c>
       <c r="AM102" t="n" s="85">
         <v>0.9994916810892572</v>
@@ -14038,7 +14038,7 @@
         <v>0.9999713567246492</v>
       </c>
       <c r="AO102" t="n" s="85">
-        <v>0.9996302526910754</v>
+        <v>0.999571569703895</v>
       </c>
       <c r="AP102" t="n" s="85">
         <v>0.9647820384408466</v>
@@ -14047,7 +14047,7 @@
         <v>0.9962449203772055</v>
       </c>
       <c r="AR102" t="n" s="85">
-        <v>0.9842650805306735</v>
+        <v>0.9819618105020754</v>
       </c>
     </row>
     <row r="103">
@@ -14154,7 +14154,7 @@
         <v>0.9998006116970257</v>
       </c>
       <c r="AL103" t="n" s="85">
-        <v>0.9619158108380509</v>
+        <v>0.956378324976753</v>
       </c>
       <c r="AM103" t="n" s="85">
         <v>0.9996632363190057</v>
@@ -14163,7 +14163,7 @@
         <v>0.9999252720812022</v>
       </c>
       <c r="AO103" t="n" s="85">
-        <v>0.9974383122617686</v>
+        <v>0.9971386046969103</v>
       </c>
       <c r="AP103" t="n" s="85">
         <v>0.8494078226479232</v>
@@ -14172,7 +14172,7 @@
         <v>0.971591258073726</v>
       </c>
       <c r="AR103" t="n" s="85">
-        <v>0.3587251496198839</v>
+        <v>0.335887397450745</v>
       </c>
     </row>
     <row r="104">
@@ -14279,7 +14279,7 @@
         <v>0.999694921533029</v>
       </c>
       <c r="AL104" t="n" s="85">
-        <v>0.989735763169227</v>
+        <v>0.9875937707057534</v>
       </c>
       <c r="AM104" t="n" s="85">
         <v>0.9992543474336629</v>
@@ -14288,7 +14288,7 @@
         <v>0.999901359768626</v>
       </c>
       <c r="AO104" t="n" s="85">
-        <v>0.9995708323807936</v>
+        <v>0.9995027234245881</v>
       </c>
       <c r="AP104" t="n" s="85">
         <v>0.8050292403814993</v>
@@ -14297,7 +14297,7 @@
         <v>0.9470615381244059</v>
       </c>
       <c r="AR104" t="n" s="85">
-        <v>0.7081691181152827</v>
+        <v>0.6786461269680041</v>
       </c>
     </row>
     <row r="105">
@@ -14404,7 +14404,7 @@
         <v>0.9999734622884113</v>
       </c>
       <c r="AL105" t="n" s="85">
-        <v>0.9999561424835691</v>
+        <v>0.9999538860681986</v>
       </c>
       <c r="AM105" t="n" s="85">
         <v>0.999677090070415</v>
@@ -14413,7 +14413,7 @@
         <v>0.9999957333073693</v>
       </c>
       <c r="AO105" t="n" s="85">
-        <v>0.9999861141419906</v>
+        <v>0.9999855990560943</v>
       </c>
       <c r="AP105" t="n" s="85">
         <v>0.864880367030103</v>
@@ -14422,7 +14422,7 @@
         <v>0.9662149228774921</v>
       </c>
       <c r="AR105" t="n" s="85">
-        <v>0.9879047293907841</v>
+        <v>0.9874399465472684</v>
       </c>
     </row>
     <row r="106">
@@ -14529,7 +14529,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL106" t="n" s="85">
-        <v>0.9420598948229332</v>
+        <v>0.9306656409358751</v>
       </c>
       <c r="AM106" t="n" s="85">
         <v>0.9994916810892572</v>
@@ -14538,7 +14538,7 @@
         <v>0.9998746810750244</v>
       </c>
       <c r="AO106" t="n" s="85">
-        <v>0.994179677983822</v>
+        <v>0.9932617596914107</v>
       </c>
       <c r="AP106" t="n" s="85">
         <v>0.9548853692767051</v>
@@ -14547,7 +14547,7 @@
         <v>0.9952817465365139</v>
       </c>
       <c r="AR106" t="n" s="85">
-        <v>0.7409458268512981</v>
+        <v>0.7133967254109852</v>
       </c>
     </row>
     <row r="107">
@@ -14654,7 +14654,7 @@
         <v>0.9997951780047545</v>
       </c>
       <c r="AL107" t="n" s="85">
-        <v>0.986430380642728</v>
+        <v>0.9858636684199567</v>
       </c>
       <c r="AM107" t="n" s="85">
         <v>0.9999520944570077</v>
@@ -14663,7 +14663,7 @@
         <v>0.9999995890120016</v>
       </c>
       <c r="AO107" t="n" s="85">
-        <v>0.999445382126427</v>
+        <v>0.9994262201270304</v>
       </c>
       <c r="AP107" t="n" s="85">
         <v>0.9996224309771445</v>
@@ -14672,7 +14672,7 @@
         <v>0.9999702497322172</v>
       </c>
       <c r="AR107" t="n" s="85">
-        <v>0.999289589149474</v>
+        <v>0.9992690719149842</v>
       </c>
     </row>
     <row r="108">
@@ -14904,7 +14904,7 @@
         <v>0.9970760319149828</v>
       </c>
       <c r="AL109" t="n" s="85">
-        <v>0.8317101054559182</v>
+        <v>0.7905358850427316</v>
       </c>
       <c r="AM109" t="n" s="85">
         <v>0.9939266913161227</v>
@@ -14913,7 +14913,7 @@
         <v>0.9928831087713562</v>
       </c>
       <c r="AO109" t="n" s="85">
-        <v>0.9334863644406088</v>
+        <v>0.9171845617038178</v>
       </c>
       <c r="AP109" t="n" s="85">
         <v>0.6188245257698797</v>
@@ -14922,7 +14922,7 @@
         <v>0.6633156752071434</v>
       </c>
       <c r="AR109" t="n" s="85">
-        <v>9.023364707071052E-4</v>
+        <v>7.285926733331018E-4</v>
       </c>
     </row>
     <row r="110">
@@ -15029,7 +15029,7 @@
         <v>0.999925303746992</v>
       </c>
       <c r="AL110" t="n" s="85">
-        <v>0.9999676406890189</v>
+        <v>0.9999627211855933</v>
       </c>
       <c r="AM110" t="n" s="85">
         <v>0.9996632363190057</v>
@@ -15038,7 +15038,7 @@
         <v>0.9999996063482122</v>
       </c>
       <c r="AO110" t="n" s="85">
-        <v>0.9999995178917618</v>
+        <v>0.9999994613251321</v>
       </c>
       <c r="AP110" t="n" s="85">
         <v>0.9013049454864459</v>
@@ -15047,7 +15047,7 @@
         <v>0.9851281786633794</v>
       </c>
       <c r="AR110" t="n" s="85">
-        <v>0.9987649005844877</v>
+        <v>0.9986341258769309</v>
       </c>
     </row>
     <row r="111">
@@ -15154,7 +15154,7 @@
         <v>0.9995931261734511</v>
       </c>
       <c r="AL111" t="n" s="85">
-        <v>0.9332589509871593</v>
+        <v>0.9202804021859827</v>
       </c>
       <c r="AM111" t="n" s="85">
         <v>0.9992543474336629</v>
@@ -15163,7 +15163,7 @@
         <v>0.9996477736934439</v>
       </c>
       <c r="AO111" t="n" s="85">
-        <v>0.993384241832768</v>
+        <v>0.9923418422680778</v>
       </c>
       <c r="AP111" t="n" s="85">
         <v>0.7829388031011737</v>
@@ -15172,7 +15172,7 @@
         <v>0.9355427966387693</v>
       </c>
       <c r="AR111" t="n" s="85">
-        <v>0.08358048056329413</v>
+        <v>0.07353492991549447</v>
       </c>
     </row>
   </sheetData>
